--- a/schedule.xlsx
+++ b/schedule.xlsx
@@ -2118,7 +2118,7 @@
   <dimension ref="A1:V36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K9" sqref="K9"/>
+      <selection activeCell="N14" sqref="N14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2574,7 +2574,7 @@
         <v>43</v>
       </c>
       <c r="C14" s="20" t="s">
-        <v>18</v>
+        <v>51</v>
       </c>
       <c r="D14" s="28"/>
       <c r="E14" s="31"/>

--- a/schedule.xlsx
+++ b/schedule.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="58">
   <si>
     <t>タスク</t>
     <phoneticPr fontId="2"/>
@@ -2118,7 +2118,7 @@
   <dimension ref="A1:V36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N14" sqref="N14"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2546,7 +2546,7 @@
         <v>42</v>
       </c>
       <c r="C13" s="20" t="s">
-        <v>51</v>
+        <v>17</v>
       </c>
       <c r="D13" s="28"/>
       <c r="E13" s="31"/>
@@ -2562,7 +2562,9 @@
       <c r="O13" s="30"/>
       <c r="P13" s="32"/>
       <c r="Q13" s="32"/>
-      <c r="R13" s="31"/>
+      <c r="R13" s="31" t="s">
+        <v>47</v>
+      </c>
       <c r="S13" s="31"/>
       <c r="T13" s="31"/>
       <c r="U13" s="31"/>
@@ -2574,7 +2576,7 @@
         <v>43</v>
       </c>
       <c r="C14" s="20" t="s">
-        <v>51</v>
+        <v>17</v>
       </c>
       <c r="D14" s="28"/>
       <c r="E14" s="31"/>
@@ -2590,7 +2592,9 @@
       <c r="O14" s="30"/>
       <c r="P14" s="32"/>
       <c r="Q14" s="32"/>
-      <c r="R14" s="31"/>
+      <c r="R14" s="31" t="s">
+        <v>47</v>
+      </c>
       <c r="S14" s="31"/>
       <c r="T14" s="31"/>
       <c r="U14" s="31"/>
@@ -2604,7 +2608,7 @@
         <v>40</v>
       </c>
       <c r="C15" s="20" t="s">
-        <v>18</v>
+        <v>51</v>
       </c>
       <c r="D15" s="28"/>
       <c r="E15" s="31"/>
@@ -2632,7 +2636,7 @@
         <v>41</v>
       </c>
       <c r="C16" s="20" t="s">
-        <v>18</v>
+        <v>51</v>
       </c>
       <c r="D16" s="28"/>
       <c r="E16" s="31"/>
